--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_16.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-363161.7869147268</v>
+        <v>-343403.1363645517</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17410625.23004074</v>
+        <v>16631928.64792684</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484444</v>
+        <v>492028.9342484447</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9069484.031267107</v>
+        <v>9128736.212406769</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>302.4714461227058</v>
       </c>
       <c r="E2" t="n">
-        <v>332.0164959768352</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>153.2556985042645</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -868,16 +868,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>237.9674519409383</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -896,10 +896,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>248.2979378436725</v>
       </c>
       <c r="D5" t="n">
-        <v>327.2879775827834</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1054,16 +1054,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>71.80950634292695</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1117,7 +1117,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>158.3040288668727</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1139,10 +1139,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>12.14527287952418</v>
+        <v>30.5520285408729</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11.12593235669124</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1297,10 +1297,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1354,10 +1354,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>333.513957064813</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1376,16 +1376,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1427,10 +1427,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>48.3219857271853</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1540,10 +1540,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225813</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>129.2606839525053</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1673,7 +1673,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633422</v>
       </c>
     </row>
     <row r="15">
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>56.95997704284452</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1780,10 +1780,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>50.30825486907124</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1850,7 +1850,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932887</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -2002,10 +2002,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>31.24391673888186</v>
       </c>
       <c r="D19" t="n">
-        <v>155.430023010809</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2017,7 +2017,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2081,7 +2081,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884118</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2251,10 +2251,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>129.2606839525049</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2299,7 +2299,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>129.7139627068492</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>75.86622810093107</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2533,7 +2533,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225785</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225785</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225796</v>
+        <v>18.0567773522574</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3427,22 +3427,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>109.142675762685</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>405.8008644413113</v>
+        <v>421.6239533009273</v>
       </c>
       <c r="C38" t="n">
-        <v>417.5253377496635</v>
+        <v>433.3484266092796</v>
       </c>
       <c r="D38" t="n">
-        <v>415.3149766385525</v>
+        <v>431.1380654981685</v>
       </c>
       <c r="E38" t="n">
-        <v>413.2012870545404</v>
+        <v>429.0243759141564</v>
       </c>
       <c r="F38" t="n">
-        <v>407.353044956137</v>
+        <v>423.176133815753</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1481427242214</v>
+        <v>396.9712315838374</v>
       </c>
       <c r="H38" t="n">
-        <v>270.0031426724685</v>
+        <v>285.8262315320845</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925399</v>
+        <v>82.40273359887</v>
       </c>
       <c r="T38" t="n">
-        <v>201.6308445169444</v>
+        <v>217.4539333765604</v>
       </c>
       <c r="U38" t="n">
-        <v>240.3943693174059</v>
+        <v>256.2174581770219</v>
       </c>
       <c r="V38" t="n">
-        <v>342.7550702267644</v>
+        <v>358.5781590863804</v>
       </c>
       <c r="W38" t="n">
-        <v>384.5711897043296</v>
+        <v>400.3942785639456</v>
       </c>
       <c r="X38" t="n">
-        <v>398.715328447735</v>
+        <v>414.538417307351</v>
       </c>
       <c r="Y38" t="n">
-        <v>387.9675521245957</v>
+        <v>403.7906409842117</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930499</v>
+        <v>189.4878110526659</v>
       </c>
       <c r="C40" t="n">
-        <v>154.6003840628599</v>
+        <v>39.43065698203119</v>
       </c>
       <c r="D40" t="n">
-        <v>147.9835025317452</v>
+        <v>163.8065913913612</v>
       </c>
       <c r="E40" t="n">
-        <v>151.8247133730227</v>
+        <v>167.6478022326388</v>
       </c>
       <c r="F40" t="n">
-        <v>158.704273159114</v>
+        <v>174.52736201873</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856832</v>
+        <v>163.5227407452992</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277819</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432405</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934607</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>141.4132446762359</v>
+        <v>157.2363335358519</v>
       </c>
       <c r="T40" t="n">
-        <v>227.1849416185819</v>
+        <v>243.0080304781979</v>
       </c>
       <c r="U40" t="n">
-        <v>259.4129604006783</v>
+        <v>275.2360492602944</v>
       </c>
       <c r="V40" t="n">
-        <v>267.8502427095265</v>
+        <v>283.6733315691425</v>
       </c>
       <c r="W40" t="n">
-        <v>253.070430030824</v>
+        <v>268.89351889044</v>
       </c>
       <c r="X40" t="n">
-        <v>226.7021267811743</v>
+        <v>242.5252156407903</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402854</v>
+        <v>224.7328524999014</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>405.8008644413113</v>
+        <v>421.6239533009273</v>
       </c>
       <c r="C41" t="n">
-        <v>417.5253377496635</v>
+        <v>433.3484266092795</v>
       </c>
       <c r="D41" t="n">
-        <v>415.3149766385525</v>
+        <v>431.1380654981685</v>
       </c>
       <c r="E41" t="n">
-        <v>413.2012870545404</v>
+        <v>429.0243759141563</v>
       </c>
       <c r="F41" t="n">
-        <v>407.353044956137</v>
+        <v>423.1761338157529</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1481427242214</v>
+        <v>396.9712315838373</v>
       </c>
       <c r="H41" t="n">
-        <v>270.0031426724685</v>
+        <v>285.8262315320845</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925399</v>
+        <v>82.40273359886993</v>
       </c>
       <c r="T41" t="n">
-        <v>201.6308445169444</v>
+        <v>217.4539333765603</v>
       </c>
       <c r="U41" t="n">
-        <v>240.3943693174059</v>
+        <v>256.2174581770219</v>
       </c>
       <c r="V41" t="n">
-        <v>342.7550702267644</v>
+        <v>358.5781590863803</v>
       </c>
       <c r="W41" t="n">
-        <v>384.5711897043296</v>
+        <v>400.3942785639456</v>
       </c>
       <c r="X41" t="n">
-        <v>398.7153284477354</v>
+        <v>414.538417307351</v>
       </c>
       <c r="Y41" t="n">
-        <v>387.9675521245957</v>
+        <v>403.7906409842117</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930499</v>
+        <v>189.4878110526658</v>
       </c>
       <c r="C43" t="n">
-        <v>154.6003840628599</v>
+        <v>170.4234729224759</v>
       </c>
       <c r="D43" t="n">
-        <v>147.9835025317452</v>
+        <v>163.8065913913611</v>
       </c>
       <c r="E43" t="n">
-        <v>151.8247133730227</v>
+        <v>167.6478022326387</v>
       </c>
       <c r="F43" t="n">
-        <v>158.704273159114</v>
+        <v>174.5273620187299</v>
       </c>
       <c r="G43" t="n">
-        <v>147.6996518856832</v>
+        <v>163.5227407452992</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277819</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432405</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934465</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>141.4132446762359</v>
+        <v>157.2363335358519</v>
       </c>
       <c r="T43" t="n">
-        <v>227.1849416185819</v>
+        <v>243.0080304781978</v>
       </c>
       <c r="U43" t="n">
-        <v>259.4129604006783</v>
+        <v>275.2360492602943</v>
       </c>
       <c r="V43" t="n">
-        <v>267.8502427095265</v>
+        <v>283.6733315691424</v>
       </c>
       <c r="W43" t="n">
-        <v>253.070430030824</v>
+        <v>268.89351889044</v>
       </c>
       <c r="X43" t="n">
-        <v>226.7021267811743</v>
+        <v>111.5323997003469</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.9097636402854</v>
+        <v>224.7328524999014</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>405.8008644413113</v>
+        <v>421.6239533009272</v>
       </c>
       <c r="C44" t="n">
-        <v>417.5253377496635</v>
+        <v>433.3484266092794</v>
       </c>
       <c r="D44" t="n">
-        <v>415.3149766385525</v>
+        <v>431.1380654981684</v>
       </c>
       <c r="E44" t="n">
-        <v>413.2012870545404</v>
+        <v>429.0243759141563</v>
       </c>
       <c r="F44" t="n">
-        <v>407.353044956137</v>
+        <v>423.1761338157528</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1481427242214</v>
+        <v>396.9712315838373</v>
       </c>
       <c r="H44" t="n">
-        <v>270.0031426724685</v>
+        <v>285.8262315320844</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925401</v>
+        <v>82.40273359886991</v>
       </c>
       <c r="T44" t="n">
-        <v>201.6308445169444</v>
+        <v>217.4539333765603</v>
       </c>
       <c r="U44" t="n">
-        <v>240.3943693174059</v>
+        <v>256.2174581770218</v>
       </c>
       <c r="V44" t="n">
-        <v>342.7550702267644</v>
+        <v>358.5781590863803</v>
       </c>
       <c r="W44" t="n">
-        <v>384.5711897043296</v>
+        <v>400.3942785639455</v>
       </c>
       <c r="X44" t="n">
-        <v>398.715328447735</v>
+        <v>414.5384173073509</v>
       </c>
       <c r="Y44" t="n">
-        <v>387.9675521245957</v>
+        <v>403.7906409842116</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930499</v>
+        <v>189.4878110526658</v>
       </c>
       <c r="C46" t="n">
-        <v>154.60038406286</v>
+        <v>170.4234729224759</v>
       </c>
       <c r="D46" t="n">
-        <v>147.9835025317452</v>
+        <v>163.8065913913611</v>
       </c>
       <c r="E46" t="n">
-        <v>151.8247133730228</v>
+        <v>167.6478022326387</v>
       </c>
       <c r="F46" t="n">
-        <v>158.704273159114</v>
+        <v>174.5273620187299</v>
       </c>
       <c r="G46" t="n">
-        <v>147.6996518856833</v>
+        <v>32.52992480485565</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277819</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432406</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.96793274293449</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>141.413244676236</v>
+        <v>157.2363335358519</v>
       </c>
       <c r="T46" t="n">
-        <v>227.1849416185819</v>
+        <v>243.0080304781978</v>
       </c>
       <c r="U46" t="n">
-        <v>259.4129604006783</v>
+        <v>275.2360492602942</v>
       </c>
       <c r="V46" t="n">
-        <v>267.8502427095265</v>
+        <v>283.6733315691424</v>
       </c>
       <c r="W46" t="n">
-        <v>253.070430030824</v>
+        <v>268.8935188904399</v>
       </c>
       <c r="X46" t="n">
-        <v>226.7021267811743</v>
+        <v>242.5252156407902</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402855</v>
+        <v>224.7328524999014</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1250.721030006719</v>
+        <v>1130.592376939026</v>
       </c>
       <c r="C2" t="n">
-        <v>822.1393557439874</v>
+        <v>1096.490308162853</v>
       </c>
       <c r="D2" t="n">
-        <v>393.5576814812557</v>
+        <v>790.9635949075947</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>761.229254106294</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>737.4022285559058</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>336.0043971791698</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>46.87424262238603</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>46.87424262238603</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>482.1289300753039</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>1047.990527955623</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>1047.990527955623</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>1047.990527955623</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>1047.990527955623</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1047.990527955623</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1628.05928040765</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2174.558066366245</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2343.712131119302</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2343.712131119302</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2343.712131119302</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2343.712131119302</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1981.095181053128</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>1576.239726464162</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111165</v>
+        <v>1157.097263043472</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.980196451223</v>
+        <v>1152.85154338353</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>553.0459876136788</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>446.5895264503211</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>351.4992375968744</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>257.3788229238281</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>173.9949845399897</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>88.60989480617357</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>46.87424262238603</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>72.93791578284363</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>397.496240749056</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>977.5649932010831</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1052.20228737478</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1052.20228737478</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1052.20228737478</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1052.20228737478</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1052.20228737478</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1592.941226006855</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1710.114004101195</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1646.658566549578</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1516.47992288018</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1340.143375880148</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1141.025857942147</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>955.7031036753413</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>800.8356679142212</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>674.3498886934419</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>803.3416511546014</v>
+        <v>452.14342019558</v>
       </c>
       <c r="C4" t="n">
-        <v>630.7799396378264</v>
+        <v>452.14342019558</v>
       </c>
       <c r="D4" t="n">
-        <v>464.9019468393491</v>
+        <v>452.14342019558</v>
       </c>
       <c r="E4" t="n">
-        <v>464.9019468393491</v>
+        <v>452.14342019558</v>
       </c>
       <c r="F4" t="n">
-        <v>288.1948928011053</v>
+        <v>275.4363661573362</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>275.4363661573362</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>135.5341918477107</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>46.87424262238603</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>133.4539277870759</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>133.4539277870759</v>
       </c>
       <c r="L4" t="n">
-        <v>395.2818083374338</v>
+        <v>506.6005427202885</v>
       </c>
       <c r="M4" t="n">
-        <v>815.3347072823371</v>
+        <v>966.0844099012015</v>
       </c>
       <c r="N4" t="n">
-        <v>815.3347072823371</v>
+        <v>1408.343213058846</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1828.012462284628</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2175.519356254969</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2343.712131119302</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2322.294309824674</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2163.05294112267</v>
       </c>
       <c r="T4" t="n">
-        <v>1276.153076507081</v>
+        <v>1917.173494701125</v>
       </c>
       <c r="U4" t="n">
-        <v>1276.153076507081</v>
+        <v>1638.740493954231</v>
       </c>
       <c r="V4" t="n">
-        <v>1276.153076507081</v>
+        <v>1351.784985824661</v>
       </c>
       <c r="W4" t="n">
-        <v>1276.153076507081</v>
+        <v>1079.758581410953</v>
       </c>
       <c r="X4" t="n">
-        <v>1030.761321840493</v>
+        <v>834.3668267443652</v>
       </c>
       <c r="Y4" t="n">
-        <v>803.3416511546014</v>
+        <v>606.9471560584734</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>846.6806259663152</v>
+        <v>389.6379614873604</v>
       </c>
       <c r="C5" t="n">
-        <v>418.0989517035836</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>1107.976466382457</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1528.02936532736</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1224.223655672615</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.980196451223</v>
+        <v>815.9375319722682</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>195.1384727187784</v>
+        <v>826.9659278567121</v>
       </c>
       <c r="C7" t="n">
-        <v>122.603617826933</v>
+        <v>654.4042163399371</v>
       </c>
       <c r="D7" t="n">
-        <v>122.603617826933</v>
+        <v>488.5262235414597</v>
       </c>
       <c r="E7" t="n">
-        <v>122.603617826933</v>
+        <v>318.768219792197</v>
       </c>
       <c r="F7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>688.8848573262783</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>1108.937756271182</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1528.990655216085</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>1418.750429333523</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1131.794921203953</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
-        <v>859.7685167902448</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>614.3767621236573</v>
+        <v>1246.204217261591</v>
       </c>
       <c r="Y7" t="n">
-        <v>386.9570914377655</v>
+        <v>1018.784546575699</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>969.0056167961613</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="C8" t="n">
-        <v>530.8631439795847</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D8" t="n">
-        <v>94.95335915402924</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E8" t="n">
-        <v>65.21901835272848</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>41.39199280234027</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>41.39199280234027</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>41.39199280234027</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>40.97520342948027</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>476.2298908823981</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>865.4698218413201</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>865.4698218413201</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>865.4698218413201</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>865.4698218413201</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>865.4698218413201</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1372.537964281138</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1879.606106720957</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>2048.760171474014</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2048.760171474014</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2048.760171474014</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1789.53786879103</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1426.920918724857</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1414.652966321297</v>
+        <v>2639.200191541657</v>
       </c>
       <c r="X8" t="n">
-        <v>1399.550906941012</v>
+        <v>2624.098132161372</v>
       </c>
       <c r="Y8" t="n">
-        <v>1395.305187281069</v>
+        <v>2215.812008461025</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>547.146948420773</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>440.6904872574153</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>345.6001984039686</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>251.4797837309223</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>168.0959453470839</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>82.7108556132678</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>40.97520342948027</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>67.03887658993787</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>391.5972015561502</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>898.6653439959684</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1079.974044374131</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1079.974044374131</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1079.974044374131</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1079.974044374131</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1079.974044374131</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1587.042186813949</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1704.214964908289</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1640.759527356672</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1510.580883687274</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1334.244336687242</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1135.126818749241</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>949.8040644824355</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>794.9366287213154</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>668.4508495005362</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>773.5683062538551</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>601.00659473708</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>435.1286019386027</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>435.1286019386027</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>435.1286019386027</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>269.5373269644304</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>129.6351526548049</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>40.97520342948027</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>40.97520342948027</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>40.97520342948027</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>459.1850851974413</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>918.6689523783544</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1360.927755535999</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1780.59700476178</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2048.760171474014</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2048.760171474014</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2027.342350179385</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1868.100981477382</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1622.221535055837</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1343.788534308942</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1056.833026179373</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>784.8066217656644</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>784.8066217656644</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>784.8066217656644</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1236.126406458079</v>
+        <v>2217.070223399536</v>
       </c>
       <c r="C11" t="n">
-        <v>797.9839336415023</v>
+        <v>1778.92775058296</v>
       </c>
       <c r="D11" t="n">
-        <v>362.0741488159468</v>
+        <v>1343.017965757404</v>
       </c>
       <c r="E11" t="n">
-        <v>362.0741488159468</v>
+        <v>909.2432209156991</v>
       </c>
       <c r="F11" t="n">
-        <v>362.0741488159468</v>
+        <v>481.3757913249069</v>
       </c>
       <c r="G11" t="n">
-        <v>362.0741488159468</v>
+        <v>79.97795994817082</v>
       </c>
       <c r="H11" t="n">
-        <v>72.94399425916299</v>
+        <v>79.97795994817082</v>
       </c>
       <c r="I11" t="n">
-        <v>72.94399425916303</v>
+        <v>79.97795994817082</v>
       </c>
       <c r="J11" t="n">
-        <v>508.1986817120809</v>
+        <v>515.2326474010887</v>
       </c>
       <c r="K11" t="n">
-        <v>1200.555058455961</v>
+        <v>1349.582939359267</v>
       </c>
       <c r="L11" t="n">
-        <v>1200.555058455961</v>
+        <v>2303.065480126583</v>
       </c>
       <c r="M11" t="n">
-        <v>1200.555058455961</v>
+        <v>2303.065480126583</v>
       </c>
       <c r="N11" t="n">
-        <v>1200.555058455961</v>
+        <v>2303.065480126583</v>
       </c>
       <c r="O11" t="n">
-        <v>2103.236987413104</v>
+        <v>3283.245146696889</v>
       </c>
       <c r="P11" t="n">
-        <v>2931.5468622465</v>
+        <v>3283.245146696889</v>
       </c>
       <c r="Q11" t="n">
-        <v>3478.045648205095</v>
+        <v>3829.743932655484</v>
       </c>
       <c r="R11" t="n">
-        <v>3647.199712958152</v>
+        <v>3998.897997408541</v>
       </c>
       <c r="S11" t="n">
-        <v>3647.199712958152</v>
+        <v>3998.897997408541</v>
       </c>
       <c r="T11" t="n">
-        <v>3427.13248583119</v>
+        <v>3778.83077028158</v>
       </c>
       <c r="U11" t="n">
-        <v>3167.910183148208</v>
+        <v>3519.608467598597</v>
       </c>
       <c r="V11" t="n">
-        <v>2805.293233082034</v>
+        <v>3519.608467598597</v>
       </c>
       <c r="W11" t="n">
-        <v>2400.437778493068</v>
+        <v>3470.79838100548</v>
       </c>
       <c r="X11" t="n">
-        <v>1981.295315072378</v>
+        <v>3051.655917584791</v>
       </c>
       <c r="Y11" t="n">
-        <v>1573.009191372032</v>
+        <v>2643.369793884444</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>579.1157392504558</v>
+        <v>586.1497049394636</v>
       </c>
       <c r="C12" t="n">
-        <v>472.6592780870981</v>
+        <v>479.6932437761059</v>
       </c>
       <c r="D12" t="n">
-        <v>377.5689892336514</v>
+        <v>384.6029549226591</v>
       </c>
       <c r="E12" t="n">
-        <v>283.4485745606051</v>
+        <v>290.4825402496128</v>
       </c>
       <c r="F12" t="n">
-        <v>200.0647361767667</v>
+        <v>207.0987018657744</v>
       </c>
       <c r="G12" t="n">
-        <v>114.6796464429506</v>
+        <v>121.7136121319583</v>
       </c>
       <c r="H12" t="n">
-        <v>72.94399425916303</v>
+        <v>79.97795994817082</v>
       </c>
       <c r="I12" t="n">
-        <v>99.00766741962063</v>
+        <v>106.0416331086284</v>
       </c>
       <c r="J12" t="n">
-        <v>423.565992385833</v>
+        <v>430.5999580748407</v>
       </c>
       <c r="K12" t="n">
-        <v>1078.272039011557</v>
+        <v>430.5999580748407</v>
       </c>
       <c r="L12" t="n">
-        <v>1078.272039011557</v>
+        <v>430.5999580748407</v>
       </c>
       <c r="M12" t="n">
-        <v>1078.272039011557</v>
+        <v>430.5999580748407</v>
       </c>
       <c r="N12" t="n">
-        <v>1078.272039011557</v>
+        <v>430.5999580748407</v>
       </c>
       <c r="O12" t="n">
-        <v>1078.272039011557</v>
+        <v>430.5999580748407</v>
       </c>
       <c r="P12" t="n">
-        <v>1078.272039011557</v>
+        <v>1085.306004700565</v>
       </c>
       <c r="Q12" t="n">
-        <v>1619.010977643632</v>
+        <v>1626.04494333264</v>
       </c>
       <c r="R12" t="n">
-        <v>1736.183755737972</v>
+        <v>1743.21772142698</v>
       </c>
       <c r="S12" t="n">
-        <v>1672.728318186355</v>
+        <v>1679.762283875363</v>
       </c>
       <c r="T12" t="n">
-        <v>1542.549674516957</v>
+        <v>1549.583640205964</v>
       </c>
       <c r="U12" t="n">
-        <v>1366.213127516925</v>
+        <v>1373.247093205933</v>
       </c>
       <c r="V12" t="n">
-        <v>1167.095609578924</v>
+        <v>1174.129575267932</v>
       </c>
       <c r="W12" t="n">
-        <v>981.7728553121183</v>
+        <v>988.8068210011261</v>
       </c>
       <c r="X12" t="n">
-        <v>826.9054195509982</v>
+        <v>833.939385240006</v>
       </c>
       <c r="Y12" t="n">
-        <v>700.419640330219</v>
+        <v>707.4536060192268</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>923.4400313360943</v>
+        <v>904.7848963605552</v>
       </c>
       <c r="C13" t="n">
-        <v>750.8783198193192</v>
+        <v>732.2231848437801</v>
       </c>
       <c r="D13" t="n">
-        <v>585.000327020842</v>
+        <v>566.3451920453028</v>
       </c>
       <c r="E13" t="n">
-        <v>415.2423232715792</v>
+        <v>396.5871882960401</v>
       </c>
       <c r="F13" t="n">
-        <v>238.5352692333354</v>
+        <v>219.8801342577963</v>
       </c>
       <c r="G13" t="n">
-        <v>72.94399425916303</v>
+        <v>219.8801342577963</v>
       </c>
       <c r="H13" t="n">
-        <v>72.94399425916303</v>
+        <v>79.97795994817082</v>
       </c>
       <c r="I13" t="n">
-        <v>72.94399425916303</v>
+        <v>79.97795994817082</v>
       </c>
       <c r="J13" t="n">
-        <v>159.5236794238529</v>
+        <v>166.5576451128607</v>
       </c>
       <c r="K13" t="n">
-        <v>434.2821339949884</v>
+        <v>441.3160996839963</v>
       </c>
       <c r="L13" t="n">
-        <v>852.4920157629494</v>
+        <v>859.5259814519574</v>
       </c>
       <c r="M13" t="n">
-        <v>1311.975882943862</v>
+        <v>1319.00984863287</v>
       </c>
       <c r="N13" t="n">
-        <v>1754.234686101507</v>
+        <v>1761.268651790515</v>
       </c>
       <c r="O13" t="n">
-        <v>2173.903935327288</v>
+        <v>2180.937901016296</v>
       </c>
       <c r="P13" t="n">
-        <v>2521.41082929763</v>
+        <v>2528.444794986638</v>
       </c>
       <c r="Q13" t="n">
-        <v>2689.603604161963</v>
+        <v>2696.637569850971</v>
       </c>
       <c r="R13" t="n">
-        <v>2689.603604161963</v>
+        <v>2696.637569850971</v>
       </c>
       <c r="S13" t="n">
-        <v>2671.364435119278</v>
+        <v>2537.396201148967</v>
       </c>
       <c r="T13" t="n">
-        <v>2425.484988697734</v>
+        <v>2406.829853722194</v>
       </c>
       <c r="U13" t="n">
-        <v>2147.051987950839</v>
+        <v>2128.3968529753</v>
       </c>
       <c r="V13" t="n">
-        <v>1860.096479821269</v>
+        <v>1841.44134484573</v>
       </c>
       <c r="W13" t="n">
-        <v>1588.070075407561</v>
+        <v>1569.414940432022</v>
       </c>
       <c r="X13" t="n">
-        <v>1342.678320740973</v>
+        <v>1324.023185765434</v>
       </c>
       <c r="Y13" t="n">
-        <v>1115.258650055081</v>
+        <v>1096.603515079542</v>
       </c>
     </row>
     <row r="14">
@@ -5267,7 +5267,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H14" t="n">
         <v>102.6776296436396</v>
@@ -5282,43 +5282,43 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W14" t="n">
         <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y14" t="n">
         <v>2955.199618136696</v>
@@ -5355,25 +5355,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>414.500552094942</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>414.500552094942</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>414.500552094942</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
         <v>1648.327823655249</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>811.7546776883914</v>
+        <v>1003.573296407379</v>
       </c>
       <c r="C16" t="n">
-        <v>811.7546776883914</v>
+        <v>831.0115848906038</v>
       </c>
       <c r="D16" t="n">
-        <v>754.2193473420839</v>
+        <v>665.1335920921265</v>
       </c>
       <c r="E16" t="n">
-        <v>584.4613435928212</v>
+        <v>495.3755883428637</v>
       </c>
       <c r="F16" t="n">
-        <v>407.7542895545774</v>
+        <v>318.6685343046199</v>
       </c>
       <c r="G16" t="n">
-        <v>242.1630145804051</v>
+        <v>153.0772593304475</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2608402707796</v>
+        <v>153.0772593304475</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5470,13 +5470,13 @@
         <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1748.411126173566</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W16" t="n">
         <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>1230.99296709327</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y16" t="n">
         <v>1003.573296407379</v>
@@ -5492,22 +5492,22 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5525,40 +5525,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5595,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1083.7810821021</v>
+        <v>811.7546776883922</v>
       </c>
       <c r="C19" t="n">
-        <v>911.2193705853254</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D19" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5683,7 +5683,7 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O19" t="n">
         <v>2203.220781338905</v>
@@ -5710,13 +5710,13 @@
         <v>1748.411126173567</v>
       </c>
       <c r="W19" t="n">
-        <v>1748.411126173567</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1503.019371506979</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y19" t="n">
-        <v>1275.599700821087</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5729,13 +5729,13 @@
         <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
         <v>793.2056155771595</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>927.0677766831641</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>754.506065166389</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>588.6280723679117</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>418.8700686186489</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>242.1630145804051</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5929,31 +5929,31 @@
         <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2559.67908147158</v>
       </c>
       <c r="T22" t="n">
-        <v>2429.112734044803</v>
+        <v>2313.799635050035</v>
       </c>
       <c r="U22" t="n">
-        <v>2150.679733297909</v>
+        <v>2035.36663430314</v>
       </c>
       <c r="V22" t="n">
-        <v>1863.724225168339</v>
+        <v>1748.41112617357</v>
       </c>
       <c r="W22" t="n">
-        <v>1591.69782075463</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1346.306066088043</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1118.886395402151</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6069,19 +6069,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477111</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>780.195165830936</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324586</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831958</v>
+        <v>673.1212928181458</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>496.414238779902</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6148,7 +6148,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
         <v>881.8088617745661</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2642.287896536275</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2396.40845011473</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6306,19 +6306,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6470,19 +6470,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>3304.552472135278</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>4284.732138705584</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6543,19 +6543,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477105</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C31" t="n">
         <v>780.1951658309358</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6655,7 +6655,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
         <v>1617.386921419177</v>
@@ -6686,25 +6686,25 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
         <v>2588.899621423627</v>
@@ -6780,19 +6780,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004238</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436401</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6944,43 +6944,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="36">
@@ -7017,19 +7017,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>790.3368563937638</v>
+        <v>952.756877347711</v>
       </c>
       <c r="C37" t="n">
-        <v>617.7751448769887</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>507.5300178439736</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>507.5300178439736</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>330.8229638057298</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176948</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878939</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798643</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.155475112751</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.390877206711</v>
+        <v>2525.85493345824</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.64811180301</v>
+        <v>2088.129250014524</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.138034390331</v>
+        <v>1652.636254561828</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961502</v>
+        <v>1219.278299092983</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835861</v>
+        <v>791.8276588750509</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197252</v>
+        <v>390.8466168711748</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="J38" t="n">
-        <v>97.56670367581786</v>
+        <v>537.3879391401689</v>
       </c>
       <c r="K38" t="n">
-        <v>540.31673232073</v>
+        <v>1371.738231098347</v>
       </c>
       <c r="L38" t="n">
-        <v>1615.376698573589</v>
+        <v>2446.798197351206</v>
       </c>
       <c r="M38" t="n">
-        <v>2772.42453378414</v>
+        <v>2446.798197351206</v>
       </c>
       <c r="N38" t="n">
-        <v>3898.155517220587</v>
+        <v>2582.520192247198</v>
       </c>
       <c r="O38" t="n">
-        <v>4878.335183790893</v>
+        <v>3562.699858817504</v>
       </c>
       <c r="P38" t="n">
-        <v>4878.335183790893</v>
+        <v>4391.009733650901</v>
       </c>
       <c r="Q38" t="n">
-        <v>4878.335183790893</v>
+        <v>4937.508519609495</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790893</v>
+        <v>5106.662584362552</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387607</v>
+        <v>5023.427499919248</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.415497673521</v>
+        <v>4803.777062165147</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403414</v>
+        <v>4544.971548855024</v>
       </c>
       <c r="V38" t="n">
-        <v>4018.375659750116</v>
+        <v>4182.77138816171</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574026</v>
+        <v>3778.332722945604</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566213</v>
+        <v>3359.607048897775</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278743</v>
+        <v>2951.737714570288</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>603.7384486671107</v>
+        <v>608.3049966785438</v>
       </c>
       <c r="C39" t="n">
-        <v>497.2819875037529</v>
+        <v>501.8485355151861</v>
       </c>
       <c r="D39" t="n">
-        <v>402.1916986503062</v>
+        <v>406.7582466617393</v>
       </c>
       <c r="E39" t="n">
-        <v>308.0712839772599</v>
+        <v>312.6378319886931</v>
       </c>
       <c r="F39" t="n">
-        <v>224.6874455934215</v>
+        <v>229.2539936048547</v>
       </c>
       <c r="G39" t="n">
-        <v>139.3023558596054</v>
+        <v>143.8689038710386</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I39" t="n">
-        <v>97.56670367581786</v>
+        <v>128.1969248477086</v>
       </c>
       <c r="J39" t="n">
-        <v>97.56670367581786</v>
+        <v>452.755249813921</v>
       </c>
       <c r="K39" t="n">
-        <v>97.56670367581786</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="L39" t="n">
-        <v>97.56670367581786</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="M39" t="n">
-        <v>97.56670367581786</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="N39" t="n">
-        <v>1220.067526522551</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="O39" t="n">
-        <v>1220.067526522551</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="P39" t="n">
-        <v>1220.067526522551</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="Q39" t="n">
-        <v>1760.806465154627</v>
+        <v>1648.20023507172</v>
       </c>
       <c r="R39" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.37301316606</v>
       </c>
       <c r="S39" t="n">
-        <v>1697.35102760301</v>
+        <v>1701.917575614443</v>
       </c>
       <c r="T39" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.738931945045</v>
       </c>
       <c r="U39" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.402384945013</v>
       </c>
       <c r="V39" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.284867007012</v>
       </c>
       <c r="W39" t="n">
-        <v>1006.395564728773</v>
+        <v>1010.962112740206</v>
       </c>
       <c r="X39" t="n">
-        <v>851.5281289676531</v>
+        <v>856.0946769790862</v>
       </c>
       <c r="Y39" t="n">
-        <v>725.0423497468738</v>
+        <v>729.608897758307</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397567</v>
+        <v>818.2293662024636</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936676</v>
+        <v>778.4004197559674</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080664</v>
+        <v>612.9392163303501</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716798</v>
+        <v>443.5980019539472</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463121</v>
+        <v>267.3077372885634</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850158</v>
+        <v>102.133251687251</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882663</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="J40" t="n">
-        <v>200.2197420758678</v>
+        <v>189.1214321162809</v>
       </c>
       <c r="K40" t="n">
-        <v>491.0515498823633</v>
+        <v>464.2883819517565</v>
       </c>
       <c r="L40" t="n">
-        <v>925.3347848856843</v>
+        <v>882.9067589840578</v>
       </c>
       <c r="M40" t="n">
-        <v>1400.892005301957</v>
+        <v>1342.799121429311</v>
       </c>
       <c r="N40" t="n">
-        <v>1859.224161694962</v>
+        <v>1785.466419851296</v>
       </c>
       <c r="O40" t="n">
-        <v>2294.966764156103</v>
+        <v>2205.544164341417</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361805</v>
+        <v>2553.459553576099</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461497</v>
+        <v>2722.060823704771</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579745</v>
+        <v>2722.060823704771</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290618</v>
+        <v>2563.236244375627</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281949</v>
+        <v>2317.773587326943</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.44033194793</v>
+        <v>2039.757375952908</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231237</v>
+        <v>1753.218657196198</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230405</v>
+        <v>1481.60904215535</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976693</v>
+        <v>1236.634076861623</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703677</v>
+        <v>1009.631195548591</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.39087720671</v>
+        <v>2525.854933458239</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.64811180301</v>
+        <v>2088.129250014523</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.13803439033</v>
+        <v>1652.636254561827</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961502</v>
+        <v>1219.278299092982</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835855</v>
+        <v>791.8276588750508</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197255</v>
+        <v>390.8466168711747</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581785</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581785</v>
+        <v>102.133251687251</v>
       </c>
       <c r="J41" t="n">
-        <v>444.7825334645019</v>
+        <v>537.3879391401689</v>
       </c>
       <c r="K41" t="n">
-        <v>1279.13282542268</v>
+        <v>1371.738231098347</v>
       </c>
       <c r="L41" t="n">
-        <v>2354.192791675539</v>
+        <v>2446.798197351206</v>
       </c>
       <c r="M41" t="n">
-        <v>2354.192791675539</v>
+        <v>2446.798197351206</v>
       </c>
       <c r="N41" t="n">
-        <v>2354.192791675539</v>
+        <v>2582.520192247197</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245845</v>
+        <v>3562.699858817503</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.682333079241</v>
+        <v>4391.0097336509</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037836</v>
+        <v>4937.508519609494</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790892</v>
+        <v>5106.662584362551</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387606</v>
+        <v>5023.427499919248</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.415497673521</v>
+        <v>4803.777062165146</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403414</v>
+        <v>4544.971548855023</v>
       </c>
       <c r="V41" t="n">
-        <v>4018.375659750116</v>
+        <v>4182.771388161709</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574026</v>
+        <v>3778.332722945603</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566212</v>
+        <v>3359.607048897774</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278742</v>
+        <v>2951.737714570287</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>603.7384486671107</v>
+        <v>608.3049966785438</v>
       </c>
       <c r="C42" t="n">
-        <v>497.2819875037529</v>
+        <v>501.8485355151861</v>
       </c>
       <c r="D42" t="n">
-        <v>402.1916986503062</v>
+        <v>406.7582466617393</v>
       </c>
       <c r="E42" t="n">
-        <v>308.0712839772599</v>
+        <v>312.6378319886931</v>
       </c>
       <c r="F42" t="n">
-        <v>224.6874455934215</v>
+        <v>229.2539936048547</v>
       </c>
       <c r="G42" t="n">
-        <v>139.3023558596054</v>
+        <v>143.8689038710386</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581785</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362754</v>
+        <v>128.1969248477086</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024878</v>
+        <v>452.755249813921</v>
       </c>
       <c r="K42" t="n">
-        <v>448.1887018024878</v>
+        <v>1133.488769884298</v>
       </c>
       <c r="L42" t="n">
-        <v>448.1887018024878</v>
+        <v>1224.634074533984</v>
       </c>
       <c r="M42" t="n">
-        <v>448.1887018024878</v>
+        <v>1224.634074533984</v>
       </c>
       <c r="N42" t="n">
-        <v>448.1887018024878</v>
+        <v>1224.634074533984</v>
       </c>
       <c r="O42" t="n">
-        <v>448.1887018024878</v>
+        <v>1224.634074533984</v>
       </c>
       <c r="P42" t="n">
-        <v>1102.894748428211</v>
+        <v>1224.634074533984</v>
       </c>
       <c r="Q42" t="n">
-        <v>1643.633687060287</v>
+        <v>1765.37301316606</v>
       </c>
       <c r="R42" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.37301316606</v>
       </c>
       <c r="S42" t="n">
-        <v>1697.35102760301</v>
+        <v>1701.917575614443</v>
       </c>
       <c r="T42" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.738931945045</v>
       </c>
       <c r="U42" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.402384945013</v>
       </c>
       <c r="V42" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.284867007012</v>
       </c>
       <c r="W42" t="n">
-        <v>1006.395564728773</v>
+        <v>1010.962112740206</v>
       </c>
       <c r="X42" t="n">
-        <v>851.5281289676531</v>
+        <v>856.0946769790862</v>
       </c>
       <c r="Y42" t="n">
-        <v>725.0423497468738</v>
+        <v>729.608897758307</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397566</v>
+        <v>950.5453418998821</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936674</v>
+        <v>778.4004197559671</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080662</v>
+        <v>612.9392163303497</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716796</v>
+        <v>443.5980019539471</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463119</v>
+        <v>267.3077372885633</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850157</v>
+        <v>102.133251687251</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882664</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581785</v>
+        <v>102.133251687251</v>
       </c>
       <c r="J43" t="n">
-        <v>200.2197420758676</v>
+        <v>189.121432116281</v>
       </c>
       <c r="K43" t="n">
-        <v>491.0515498823631</v>
+        <v>464.2883819517567</v>
       </c>
       <c r="L43" t="n">
-        <v>925.334784885684</v>
+        <v>882.9067589840579</v>
       </c>
       <c r="M43" t="n">
-        <v>1400.892005301957</v>
+        <v>1342.799121429311</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.224161694961</v>
+        <v>1785.466419851296</v>
       </c>
       <c r="O43" t="n">
-        <v>2294.966764156103</v>
+        <v>2205.544164341417</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361804</v>
+        <v>2553.459553576099</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461496</v>
+        <v>2722.060823704771</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579744</v>
+        <v>2722.060823704771</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290617</v>
+        <v>2563.236244375628</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281948</v>
+        <v>2317.773587326943</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.44033194793</v>
+        <v>2039.757375952909</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231236</v>
+        <v>1753.218657196199</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230404</v>
+        <v>1481.609042155351</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976693</v>
+        <v>1368.950052559041</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703677</v>
+        <v>1141.947171246009</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.39087720671</v>
+        <v>2525.854933458239</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.64811180301</v>
+        <v>2088.129250014523</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.138034390331</v>
+        <v>1652.636254561827</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961502</v>
+        <v>1219.278299092983</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835857</v>
+        <v>791.8276588750508</v>
       </c>
       <c r="G44" t="n">
-        <v>370.2971508197256</v>
+        <v>390.8466168711747</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581785</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581785</v>
+        <v>102.133251687251</v>
       </c>
       <c r="J44" t="n">
-        <v>444.7825334645019</v>
+        <v>537.3879391401689</v>
       </c>
       <c r="K44" t="n">
-        <v>1279.13282542268</v>
+        <v>1371.738231098347</v>
       </c>
       <c r="L44" t="n">
-        <v>2354.192791675539</v>
+        <v>2446.798197351206</v>
       </c>
       <c r="M44" t="n">
-        <v>2354.192791675539</v>
+        <v>2446.798197351206</v>
       </c>
       <c r="N44" t="n">
-        <v>2354.192791675539</v>
+        <v>2582.520192247197</v>
       </c>
       <c r="O44" t="n">
-        <v>3334.372458245845</v>
+        <v>3562.699858817503</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.682333079241</v>
+        <v>4391.0097336509</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037836</v>
+        <v>4937.508519609494</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790892</v>
+        <v>5106.662584362551</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387606</v>
+        <v>5023.427499919248</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.41549767352</v>
+        <v>4803.777062165146</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403413</v>
+        <v>4544.971548855023</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750116</v>
+        <v>4182.771388161709</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574025</v>
+        <v>3778.332722945603</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566212</v>
+        <v>3359.607048897774</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278742</v>
+        <v>2951.737714570287</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>603.7384486671107</v>
+        <v>608.3049966785438</v>
       </c>
       <c r="C45" t="n">
-        <v>497.2819875037529</v>
+        <v>501.8485355151861</v>
       </c>
       <c r="D45" t="n">
-        <v>402.1916986503062</v>
+        <v>406.7582466617393</v>
       </c>
       <c r="E45" t="n">
-        <v>308.0712839772599</v>
+        <v>312.6378319886931</v>
       </c>
       <c r="F45" t="n">
-        <v>224.6874455934215</v>
+        <v>229.2539936048547</v>
       </c>
       <c r="G45" t="n">
-        <v>139.3023558596054</v>
+        <v>143.8689038710386</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581785</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I45" t="n">
-        <v>123.6303768362754</v>
+        <v>128.1969248477086</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024878</v>
+        <v>452.755249813921</v>
       </c>
       <c r="K45" t="n">
-        <v>448.1887018024878</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="L45" t="n">
-        <v>448.1887018024878</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="M45" t="n">
-        <v>448.1887018024878</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="N45" t="n">
-        <v>448.1887018024878</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="O45" t="n">
-        <v>448.1887018024878</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="Q45" t="n">
-        <v>1643.633687060287</v>
+        <v>1648.20023507172</v>
       </c>
       <c r="R45" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.37301316606</v>
       </c>
       <c r="S45" t="n">
-        <v>1697.35102760301</v>
+        <v>1701.917575614443</v>
       </c>
       <c r="T45" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.738931945045</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.402384945013</v>
       </c>
       <c r="V45" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.284867007012</v>
       </c>
       <c r="W45" t="n">
-        <v>1006.395564728773</v>
+        <v>1010.962112740206</v>
       </c>
       <c r="X45" t="n">
-        <v>851.5281289676531</v>
+        <v>856.0946769790862</v>
       </c>
       <c r="Y45" t="n">
-        <v>725.0423497468738</v>
+        <v>729.608897758307</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397567</v>
+        <v>818.2293662024651</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936675</v>
+        <v>646.08444405855</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080663</v>
+        <v>480.6232406329327</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716798</v>
+        <v>311.2820262565301</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5209799463121</v>
+        <v>134.9917615911456</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850158</v>
+        <v>102.133251687251</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882665</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581785</v>
+        <v>102.133251687251</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758676</v>
+        <v>189.121432116281</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823633</v>
+        <v>464.2883819517567</v>
       </c>
       <c r="L46" t="n">
-        <v>925.3347848856843</v>
+        <v>882.906758984058</v>
       </c>
       <c r="M46" t="n">
-        <v>1400.892005301957</v>
+        <v>1342.799121429311</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694962</v>
+        <v>1785.466419851296</v>
       </c>
       <c r="O46" t="n">
-        <v>2294.966764156103</v>
+        <v>2205.544164341418</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361805</v>
+        <v>2553.4595535761</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461497</v>
+        <v>2722.060823704772</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579745</v>
+        <v>2722.060823704772</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290617</v>
+        <v>2563.236244375629</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281948</v>
+        <v>2317.773587326944</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.44033194793</v>
+        <v>2039.757375952909</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231237</v>
+        <v>1753.2186571962</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230405</v>
+        <v>1481.609042155351</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976693</v>
+        <v>1236.634076861624</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703678</v>
+        <v>1009.631195548592</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>571.5773715962816</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>585.9280327798256</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>585.9280327798255</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>75.3912062360572</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,19 +8137,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>376.9157726598107</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8377,22 +8377,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,7 +8453,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>393.1716474332545</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>512.1900428685034</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
-        <v>512.1900428685035</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>512.1900428685033</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>183.1401013920836</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>512.1900428685033</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,10 +8608,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -8626,10 +8626,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>270.8718855679126</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8690,10 +8690,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>699.3498754988689</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>963.113677542744</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,10 +8702,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>911.7999282395381</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8769,22 +8769,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8930,13 +8930,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9003,10 +9003,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>289.0667057209139</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,16 +9015,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9243,22 +9243,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9717,22 +9717,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9954,22 +9954,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>866.2895820207509</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10130,10 +10130,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,22 +10191,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10355,7 +10355,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10428,22 +10428,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10592,10 +10592,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>447.222251156477</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>137.0929241373656</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,7 +10911,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1133.8392149967</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>350.7230603926101</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>137.0929241373647</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11139,10 +11139,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>92.06596429261231</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>350.7230603926101</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>137.0929241373647</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>88.52261771524564</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23315,10 +23315,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>352.4849143158917</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23464,10 +23464,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627252</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>114.159968004824</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>107.259235827648</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>37.46509486400017</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="D19" t="n">
-        <v>8.789189859683489</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308167885</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24139,10 +24139,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>114.1599680048244</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>139.5921776627222</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>81.78272691405223</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627254</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627254</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>55.07653710780754</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>130.9928159404448</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.0905310873979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.36072825394005</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>20.79102160255047</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.0905310873978</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.36072825393998</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>20.7910216025504</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>130.9928159404433</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>130.9928159404435</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.0905310873978</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.36072825393997</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>20.79102160255039</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>766723.9080195096</v>
+        <v>778327.0737193463</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>766723.9080195096</v>
+        <v>784184.0109002439</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>773033.6096306577</v>
+        <v>784184.0109002439</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>632291.5868780107</v>
+        <v>673808.5089621838</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>805329.8508433959</v>
+        <v>805329.850843396</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>805329.8508433957</v>
+        <v>805329.850843396</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>814634.5528821197</v>
+        <v>805560.6091533341</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>814634.5528821197</v>
+        <v>805560.6091533341</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>814634.5528821197</v>
+        <v>805560.6091533341</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26320,40 @@
         <v>214458.9279561634</v>
       </c>
       <c r="E2" t="n">
-        <v>165461.452886192</v>
+        <v>176325.8236764608</v>
       </c>
       <c r="F2" t="n">
-        <v>210743.0336549409</v>
+        <v>210743.033654941</v>
       </c>
       <c r="G2" t="n">
         <v>210743.033654941</v>
       </c>
       <c r="H2" t="n">
-        <v>210743.0336549409</v>
+        <v>210743.033654941</v>
       </c>
       <c r="I2" t="n">
         <v>210743.033654941</v>
       </c>
       <c r="J2" t="n">
+        <v>210743.0336549409</v>
+      </c>
+      <c r="K2" t="n">
+        <v>210743.0336549409</v>
+      </c>
+      <c r="L2" t="n">
         <v>210743.033654941</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>210743.033654941</v>
       </c>
-      <c r="L2" t="n">
-        <v>210743.0336549409</v>
-      </c>
-      <c r="M2" t="n">
-        <v>210743.0336549409</v>
-      </c>
       <c r="N2" t="n">
-        <v>214458.9279561633</v>
+        <v>210837.4710260739</v>
       </c>
       <c r="O2" t="n">
-        <v>214458.9279561633</v>
+        <v>210837.4710260739</v>
       </c>
       <c r="P2" t="n">
-        <v>214458.9279561634</v>
+        <v>210837.4710260739</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>196357.9601292734</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>26358.42421742338</v>
       </c>
       <c r="D3" t="n">
-        <v>27302.57079477319</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>119314.7203543128</v>
+        <v>99190.38620900114</v>
       </c>
       <c r="F3" t="n">
-        <v>105000.4827540557</v>
+        <v>79807.80709144758</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449901</v>
+        <v>153304.5542086447</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>20997.92775377281</v>
       </c>
       <c r="L3" t="n">
-        <v>22245.22726401166</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>99584.3818740033</v>
+        <v>82787.88458904513</v>
       </c>
       <c r="N3" t="n">
-        <v>88373.1476371606</v>
+        <v>68160.46143052628</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>5.142553050063725e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212093.1194372179</v>
+        <v>186704.8086987812</v>
       </c>
       <c r="C4" t="n">
-        <v>212093.1194372179</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="D4" t="n">
-        <v>198287.1746360593</v>
+        <v>173889.535266443</v>
       </c>
       <c r="E4" t="n">
-        <v>74492.26210185926</v>
+        <v>79383.50137459274</v>
       </c>
       <c r="F4" t="n">
+        <v>94878.44464875293</v>
+      </c>
+      <c r="G4" t="n">
         <v>94878.44464875289</v>
-      </c>
-      <c r="G4" t="n">
-        <v>94878.44464875291</v>
       </c>
       <c r="H4" t="n">
         <v>94878.44464875292</v>
@@ -26451,13 +26451,13 @@
         <v>94878.44464875291</v>
       </c>
       <c r="N4" t="n">
-        <v>107302.2988178706</v>
+        <v>95206.69569251794</v>
       </c>
       <c r="O4" t="n">
-        <v>107302.2988178706</v>
+        <v>95206.69569251798</v>
       </c>
       <c r="P4" t="n">
-        <v>107302.2988178705</v>
+        <v>95206.695692518</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26467,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>69252.02439301339</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>64768.754606405</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>55437.43563696391</v>
+        <v>60783.24956060982</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26491,7 +26491,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26503,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608973</v>
+        <v>77655.95995743987</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608971</v>
+        <v>77655.95995743987</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608971</v>
+        <v>77655.95995743987</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-199250.2802779868</v>
+        <v>-237855.8652649046</v>
       </c>
       <c r="C6" t="n">
-        <v>-57058.97961827685</v>
+        <v>-60001.55608946078</v>
       </c>
       <c r="D6" t="n">
-        <v>-75899.57208107406</v>
+        <v>-33643.13187203735</v>
       </c>
       <c r="E6" t="n">
-        <v>-83782.96520694389</v>
+        <v>-63269.64536949104</v>
       </c>
       <c r="F6" t="n">
-        <v>-66854.13235366018</v>
+        <v>-41684.68103043471</v>
       </c>
       <c r="G6" t="n">
-        <v>38146.35040039553</v>
+        <v>38123.1260610129</v>
       </c>
       <c r="H6" t="n">
-        <v>38146.35040039549</v>
+        <v>38123.12606101287</v>
       </c>
       <c r="I6" t="n">
-        <v>38146.35040039555</v>
+        <v>38123.1260610129</v>
       </c>
       <c r="J6" t="n">
-        <v>-72868.11494459456</v>
+        <v>-115181.4281476318</v>
       </c>
       <c r="K6" t="n">
-        <v>38146.35040039555</v>
+        <v>17125.19830724006</v>
       </c>
       <c r="L6" t="n">
-        <v>15901.12313638386</v>
+        <v>38123.1260610129</v>
       </c>
       <c r="M6" t="n">
-        <v>-61438.0314736078</v>
+        <v>-44664.75852803225</v>
       </c>
       <c r="N6" t="n">
-        <v>-56732.13322495761</v>
+        <v>-30208.28016022325</v>
       </c>
       <c r="O6" t="n">
-        <v>31641.01441220305</v>
+        <v>37952.18127030296</v>
       </c>
       <c r="P6" t="n">
-        <v>31641.01441220311</v>
+        <v>37952.18127030298</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313669</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791314479</v>
       </c>
     </row>
     <row r="3">
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>585.9280327798255</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>512.1900428685034</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>911.799928239538</v>
+        <v>999.7244993521352</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26823,13 +26823,13 @@
         <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1219.583795947723</v>
+        <v>1276.665646090638</v>
       </c>
       <c r="O4" t="n">
-        <v>1219.583795947723</v>
+        <v>1276.665646090638</v>
       </c>
       <c r="P4" t="n">
-        <v>1219.583795947723</v>
+        <v>1276.665646090638</v>
       </c>
     </row>
   </sheetData>
@@ -26941,10 +26941,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313669</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.428191312579656e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>585.9280327798255</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>81.5871738280315</v>
       </c>
       <c r="D4" t="n">
-        <v>87.89418534839903</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>399.6098853710346</v>
+        <v>332.2092927442783</v>
       </c>
       <c r="F4" t="n">
-        <v>366.4605751452074</v>
+        <v>278.5360040326099</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201042</v>
+        <v>585.9280327798255</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>81.5871738280315</v>
       </c>
       <c r="L4" t="n">
-        <v>87.89418534839903</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>399.6098853710346</v>
+        <v>332.2092927442783</v>
       </c>
       <c r="N4" t="n">
-        <v>307.7838677081853</v>
+        <v>276.9411467385024</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>585.9280327798255</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>81.5871738280315</v>
       </c>
       <c r="L4" t="n">
-        <v>87.89418534839903</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>399.6098853710346</v>
+        <v>332.2092927442783</v>
       </c>
       <c r="N4" t="n">
-        <v>366.4605751452074</v>
+        <v>278.5360040326099</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>129.0792408545941</v>
       </c>
       <c r="E2" t="n">
-        <v>97.42050141645257</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>36.64473402753276</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -27549,10 +27549,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27588,16 +27588,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>5.45320001639098</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>185.4631102447384</v>
       </c>
       <c r="D5" t="n">
-        <v>104.2627093945165</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27670,16 +27670,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,16 +27774,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>99.02658805868036</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>84.63380825304893</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27859,10 +27859,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27907,19 +27907,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>388.6616271635529</v>
+        <v>370.2548715022041</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>178.774500175106</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,10 +28017,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>3.880510727564494e-12</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313669</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313669</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313669</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313669</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313669</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313669</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313669</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791313669</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313669</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313669</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313669</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313669</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313669</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313669</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313669</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313669</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313669</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313669</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313669</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313669</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313669</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313669</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313669</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313669</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313669</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313669</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313669</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313669</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313669</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313669</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313669</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313669</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313669</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313669</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313669</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313669</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313669</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313669</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791313669</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874697</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874737</v>
+        <v>0.4126214791314312</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791314479</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791314479</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791314479</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791314479</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791314479</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791314479</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791314479</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791314479</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791314479</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791314479</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791314479</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791314479</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791314479</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791314479</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791314479</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791314479</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791314479</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791314479</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791314479</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791314479</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791314479</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791314479</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791314479</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791314479</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791314479</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791314479</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791314479</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791314479</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791314479</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791314479</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791314479</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791314479</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791314479</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791314479</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791314479</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791314479</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791314479</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874735</v>
+        <v>0.4126214791314479</v>
       </c>
     </row>
   </sheetData>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>571.5773715962816</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>585.9280327798256</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>585.9280327798255</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>75.3912062360572</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,22 +34854,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>376.9157726598107</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>393.1716474332545</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>512.1900428685034</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
-        <v>512.1900428685035</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>512.1900428685033</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>183.1401013920836</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>512.1900428685033</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -35343,13 +35343,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>270.8718855679126</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,10 +35410,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>699.3498754988689</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>963.113677542744</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35422,10 +35422,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>911.7999282395381</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458551</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35489,22 +35489,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35650,13 +35650,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>289.0667057209139</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35735,16 +35735,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35893,7 +35893,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35963,22 +35963,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36048,13 +36048,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645584</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36297,7 +36297,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821575</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36437,22 +36437,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36519,7 +36519,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36668,28 +36668,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36765,7 +36765,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -36838,10 +36838,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>866.2895820207509</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36850,10 +36850,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -36999,7 +36999,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N31" t="n">
-        <v>446.726063795601</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512943</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37312,10 +37312,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37385,7 +37385,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>447.222251156477</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>137.0929241373656</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37631,7 +37631,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1133.8392149967</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37643,7 +37643,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>103.6899377778282</v>
+        <v>87.86684891821204</v>
       </c>
       <c r="K40" t="n">
-        <v>293.7695028348439</v>
+        <v>277.9464139752279</v>
       </c>
       <c r="L40" t="n">
-        <v>438.6699343467889</v>
+        <v>422.8468454871729</v>
       </c>
       <c r="M40" t="n">
-        <v>480.3608287033061</v>
+        <v>464.5377398436901</v>
       </c>
       <c r="N40" t="n">
-        <v>462.9617741343479</v>
+        <v>447.1386852747319</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900419</v>
+        <v>424.3209540304256</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552542</v>
+        <v>351.4296860956383</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.127402120901</v>
+        <v>170.3043132612852</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>350.7230603926101</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>137.0929241373647</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37859,10 +37859,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>92.06596429261231</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37874,13 +37874,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>103.689937777828</v>
+        <v>87.86684891821211</v>
       </c>
       <c r="K43" t="n">
-        <v>293.7695028348439</v>
+        <v>277.946413975228</v>
       </c>
       <c r="L43" t="n">
-        <v>438.6699343467889</v>
+        <v>422.8468454871729</v>
       </c>
       <c r="M43" t="n">
-        <v>480.3608287033061</v>
+        <v>464.53773984369</v>
       </c>
       <c r="N43" t="n">
-        <v>462.9617741343479</v>
+        <v>447.1386852747321</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900416</v>
+        <v>424.3209540304258</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552542</v>
+        <v>351.4296860956383</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.127402120901</v>
+        <v>170.3043132612852</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>350.7230603926101</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -38026,7 +38026,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>137.0929241373647</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.689937777828</v>
+        <v>87.86684891821211</v>
       </c>
       <c r="K46" t="n">
-        <v>293.7695028348442</v>
+        <v>277.946413975228</v>
       </c>
       <c r="L46" t="n">
-        <v>438.6699343467889</v>
+        <v>422.846845487173</v>
       </c>
       <c r="M46" t="n">
-        <v>480.3608287033061</v>
+        <v>464.5377398436901</v>
       </c>
       <c r="N46" t="n">
-        <v>462.9617741343479</v>
+        <v>447.1386852747321</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900419</v>
+        <v>424.320954030426</v>
       </c>
       <c r="P46" t="n">
-        <v>367.2527749552542</v>
+        <v>351.4296860956383</v>
       </c>
       <c r="Q46" t="n">
-        <v>186.127402120901</v>
+        <v>170.3043132612852</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
